--- a/HORARIOS.xlsx
+++ b/HORARIOS.xlsx
@@ -11,14 +11,16 @@
     <sheet name="M1 - 301" sheetId="2" r:id="rId2"/>
     <sheet name="M1 - 302" sheetId="3" r:id="rId3"/>
     <sheet name="M1 - 303" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="M1 - 304" sheetId="5" r:id="rId5"/>
+    <sheet name="M1 - 305" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="17">
   <si>
     <t>Lunes</t>
   </si>
@@ -59,25 +61,16 @@
     <t>Bloque 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Celda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">elda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">da </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t/>
+    <t>2998-MATC8031</t>
+  </si>
+  <si>
+    <t>2995-INFB8010</t>
+  </si>
+  <si>
+    <t>2993-INF64000</t>
+  </si>
+  <si>
+    <t>2994-INF79800</t>
   </si>
 </sst>
 </file>
@@ -418,37 +411,151 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -486,37 +593,151 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -553,37 +774,151 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -620,37 +955,151 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -659,6 +1108,368 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr/>
   <sheetData/>

--- a/HORARIOS.xlsx
+++ b/HORARIOS.xlsx
@@ -7,20 +7,66 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Edificio - Sala" sheetId="1" r:id="rId1"/>
-    <sheet name="M1 - 301" sheetId="2" r:id="rId2"/>
-    <sheet name="M1 - 302" sheetId="3" r:id="rId3"/>
-    <sheet name="M1 - 303" sheetId="4" r:id="rId4"/>
-    <sheet name="M1 - 304" sheetId="5" r:id="rId5"/>
-    <sheet name="M1 - 305" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="M1 - 301" sheetId="1" r:id="rId1"/>
+    <sheet name="M1 - 302" sheetId="2" r:id="rId2"/>
+    <sheet name="M1 - 303" sheetId="3" r:id="rId3"/>
+    <sheet name="M1 - 304" sheetId="4" r:id="rId4"/>
+    <sheet name="M1 - 305" sheetId="5" r:id="rId5"/>
+    <sheet name="M1 - 306" sheetId="6" r:id="rId6"/>
+    <sheet name="M1 - 307" sheetId="7" r:id="rId7"/>
+    <sheet name="M2 - 201" sheetId="8" r:id="rId8"/>
+    <sheet name="M2 - 202" sheetId="9" r:id="rId9"/>
+    <sheet name="M2 - 203" sheetId="10" r:id="rId10"/>
+    <sheet name="M2 - 204" sheetId="11" r:id="rId11"/>
+    <sheet name="M2 - 301" sheetId="12" r:id="rId12"/>
+    <sheet name="M2 - 302" sheetId="13" r:id="rId13"/>
+    <sheet name="M2 - 303" sheetId="14" r:id="rId14"/>
+    <sheet name="M2 - 304" sheetId="15" r:id="rId15"/>
+    <sheet name="M3 - 101" sheetId="16" r:id="rId16"/>
+    <sheet name="M3 - 102" sheetId="17" r:id="rId17"/>
+    <sheet name="M3 - 103" sheetId="18" r:id="rId18"/>
+    <sheet name="M3 - 104" sheetId="19" r:id="rId19"/>
+    <sheet name="M3 - 201" sheetId="20" r:id="rId20"/>
+    <sheet name="M3 - 202" sheetId="21" r:id="rId21"/>
+    <sheet name="M3 - 203" sheetId="22" r:id="rId22"/>
+    <sheet name="M3 - 204" sheetId="23" r:id="rId23"/>
+    <sheet name="M3 - 301" sheetId="24" r:id="rId24"/>
+    <sheet name="M3 - 302" sheetId="25" r:id="rId25"/>
+    <sheet name="M3 - 303" sheetId="26" r:id="rId26"/>
+    <sheet name="M3 - 304" sheetId="27" r:id="rId27"/>
+    <sheet name="M6 - 205" sheetId="28" r:id="rId28"/>
+    <sheet name="M6 - 209" sheetId="29" r:id="rId29"/>
+    <sheet name="M6 - 210" sheetId="30" r:id="rId30"/>
+    <sheet name="M6 - 214" sheetId="31" r:id="rId31"/>
+    <sheet name="M6 - 325" sheetId="32" r:id="rId32"/>
+    <sheet name="M6 - 327" sheetId="33" r:id="rId33"/>
+    <sheet name="M6 - 330" sheetId="34" r:id="rId34"/>
+    <sheet name="M6 - 331" sheetId="35" r:id="rId35"/>
+    <sheet name="LAB - 1" sheetId="36" r:id="rId36"/>
+    <sheet name="LAB - 2" sheetId="37" r:id="rId37"/>
+    <sheet name="LAB - 3" sheetId="38" r:id="rId38"/>
+    <sheet name="LAB - 4" sheetId="39" r:id="rId39"/>
+    <sheet name="LAB - 5" sheetId="40" r:id="rId40"/>
+    <sheet name="LAB - 6" sheetId="41" r:id="rId41"/>
+    <sheet name="M10 - 1" sheetId="42" r:id="rId42"/>
+    <sheet name="M10 - 2" sheetId="43" r:id="rId43"/>
+    <sheet name="M10 - 3" sheetId="44" r:id="rId44"/>
+    <sheet name="M10 - 4" sheetId="45" r:id="rId45"/>
+    <sheet name="M10 - 5" sheetId="46" r:id="rId46"/>
+    <sheet name="M10 - 6" sheetId="47" r:id="rId47"/>
+    <sheet name="M10 - 7" sheetId="48" r:id="rId48"/>
+    <sheet name="M10 - 8" sheetId="49" r:id="rId49"/>
+    <sheet name="M10 - 9" sheetId="50" r:id="rId50"/>
+    <sheet name="M10 - 10" sheetId="51" r:id="rId51"/>
+    <sheet name="M10 - 11" sheetId="52" r:id="rId52"/>
+    <sheet name="M10 - 12" sheetId="53" r:id="rId53"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="17">
   <si>
     <t>Lunes</t>
   </si>
@@ -563,7 +609,3627 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H9"/>
   <sheetFormatPr/>
@@ -925,7 +4591,3627 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H9"/>
   <sheetFormatPr/>
@@ -1287,6 +8573,730 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H9"/>
@@ -1470,8 +9480,543 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H9"/>
   <sheetFormatPr/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetFormatPr/>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>